--- a/peer_review_2024.xlsx
+++ b/peer_review_2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10840" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Self Responses" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="150">
   <si>
     <t>Timestamp</t>
   </si>
@@ -41,8 +41,7 @@
 Any action or initiative should always aim to improve customer trust and should be taken keeping customer interest in mind. A rating of 1 signifies your approach to projects you have completed has not been customer-centric. A rating of 5 means that all your projects have been completed keeping the best interest of the customers in mind.</t>
   </si>
   <si>
-    <t>Highlight a few instances of why you gave yourself a particular rating in "Customer Obsession"
-The question is meant to make you think about why you gave yourself a particular rating in the "Customer Obsession" value. You might have rated yourself 3, thinking deeply and putting down instances will help you realize why you gave yourself that rating.</t>
+    <t>Highlight a few instances of why you gave yourself a particular rating in "Customer Obsession". The question is meant to make you think about why you gave yourself a particular rating in the "Customer Obsession" value. You might have rated yourself 3, thinking deeply and putting down instances will help you realize why you gave yourself that rating.</t>
   </si>
   <si>
     <t>How would you rate yourself on their "Bias for Action"*
@@ -151,9 +150,6 @@
     <t>priyamvada@growsimplee.com</t>
   </si>
   <si>
-    <t xml:space="preserve">The categories that I worked on were Fashion &amp; Apparel category -  a major player that I was able to acquire is  House of Rare which has contributed to improving the DRR for us in Bangalore.  I am now focused exclusively on  expanding the top line of leads which will very quickly be moving towards closure. </t>
-  </si>
-  <si>
     <t>I continuously sought direct feedback from our clients through regular communication , allowing me to gain valuable insights into their evolving needs and preferences. This approach led to giving accurate feedback to the product team to build  customization of our services so as to be able retain these clients. During the onboarding process when the self sign up process was rolled out there were some hiccups for the client to properly onboard themselves, I was able to put together a Signup and Onboarding manual to ease the onboarding process while reducing the TAT.</t>
   </si>
   <si>
@@ -182,7 +178,7 @@
     <t>How would you rate the team member on "Customer Obsession"? Any action or initiative should always aim to improve customer trust and should be taken keeping customer interest in mind. A rating of 1 signifies the team member doesn't think with a customer-first approach. A rating of 5 means the team member always thinks customer first, and all his actions are aligned keeping the best interest of the customers in mind.</t>
   </si>
   <si>
-    <t>Highlight a few instances of why you gave the team member a particular rating in "Customer Obsession" The question is meant to make you think about why you gave someone a rating in the "Customer Obsession" value. You might feel someone is a 3, thinking deeply and putting down instances will help you realize what you rated is actually right.</t>
+    <t>Highlight a few instances of why you gave the team member a particular rating in "Customer Obsession". The question is meant to make you think about why you gave someone a rating in the "Customer Obsession" value. You might feel someone is a 3, thinking deeply and putting down instances will help you realize what you rated is actually right.</t>
   </si>
   <si>
     <t>How would you rate the team member on their "Bias for Action" As an early-stage company, it is do-or-die for us to get things done. The "Bias for Action" value measures this. 1 on the scale means the team member you are rating needs to be pushed to get their things out and doesn't take initiative themselves. 3 on the scale would mean they get their work done by themselves and that's it. A rating of 5 means the team member not only gets their work done but also takes initiative and fixes whatever and wherever they feel something is not right</t>
@@ -200,7 +196,7 @@
     <t>How would you rate the team member on "Ownership" One of the key tenets to building a successful team is "Ownership". You'll never need to follow up on a task with an Owner. Team members are expected to own and drive initiatives tagged to them. Owners act on behalf of the entire company, beyond just their own team. "That’s not my job" is something they'll never say. A rating of 1 would mean the team member is a Renter, not an Owner, they'll try to move things away from them and think short term. A rating of 5 would mean the team member never shies away from any task, anything that's tagged to them gets done.</t>
   </si>
   <si>
-    <t>Highlight a few instances of why you gave the team member a particular rating on "Ownership" The question is meant to make you think about why you gave someone a rating on the "Ownership" value.</t>
+    <t>Highlight a few instances of why you gave the team member a particular rating on "Ownership".  The question is meant to make you think about why you gave someone a rating on the "Ownership" value.</t>
   </si>
   <si>
     <t>What should this person do differently?</t>
@@ -213,9 +209,6 @@
   </si>
   <si>
     <t>iqbal@growsimplee.com</t>
-  </si>
-  <si>
-    <t>Replying the Leads and timely follow-up is what needs to work upon</t>
   </si>
   <si>
     <t>sometime found her not been taking the key decisions on time impacting the overall action which could have resulted in lead closure</t>
@@ -542,11 +535,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy\ h:mm:ss"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -605,11 +598,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -617,8 +605,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,6 +648,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -641,7 +664,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,19 +677,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,21 +701,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,21 +710,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,9 +724,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -766,19 +759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,19 +777,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,7 +819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +837,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,43 +879,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,13 +915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,37 +933,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,15 +992,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1052,6 +1036,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1060,146 +1053,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1310,7 +1303,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7107,9 +7099,9 @@
   <dimension ref="A1:S130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12"/>
@@ -7124,37 +7116,37 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="52" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -7206,7 +7198,7 @@
       <c r="M2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="N2" s="56" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7217,45 +7209,43 @@
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1">
         <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1">
         <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="M3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="57" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="4" ht="13.2" spans="1:19">
-      <c r="A4" s="56"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="16"/>
@@ -7276,7 +7266,7 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" ht="13.2" spans="1:19">
-      <c r="A5" s="56"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="16"/>
@@ -7297,7 +7287,7 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" ht="13.2" spans="1:19">
-      <c r="A6" s="56"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="16"/>
@@ -7318,7 +7308,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" ht="13.2" spans="1:19">
-      <c r="A7" s="56"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="16"/>
@@ -7339,7 +7329,7 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" ht="13.2" spans="1:19">
-      <c r="A8" s="56"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="16"/>
@@ -7360,7 +7350,7 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" ht="13.2" spans="1:19">
-      <c r="A9" s="56"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="16"/>
@@ -7381,7 +7371,7 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" ht="13.2" spans="1:19">
-      <c r="A10" s="56"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="16"/>
@@ -7402,7 +7392,7 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" ht="13.2" spans="1:19">
-      <c r="A11" s="56"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="16"/>
@@ -7423,7 +7413,7 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" ht="13.2" spans="1:19">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="16"/>
@@ -7444,7 +7434,7 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" ht="13.2" spans="1:19">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="16"/>
@@ -7465,7 +7455,7 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" ht="13.2" spans="1:19">
-      <c r="A14" s="56"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="16"/>
@@ -7486,7 +7476,7 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" ht="13.2" spans="1:19">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="16"/>
@@ -7507,7 +7497,7 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" ht="13.2" spans="1:19">
-      <c r="A16" s="56"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="16"/>
@@ -7528,7 +7518,7 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" ht="13.2" spans="1:19">
-      <c r="A17" s="56"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="16"/>
@@ -7549,7 +7539,7 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" ht="13.2" spans="1:19">
-      <c r="A18" s="56"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="16"/>
@@ -7570,7 +7560,7 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" ht="13.2" spans="1:19">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="16"/>
@@ -7591,7 +7581,7 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" ht="13.2" spans="1:19">
-      <c r="A20" s="56"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="16"/>
@@ -7612,7 +7602,7 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" ht="13.2" spans="1:19">
-      <c r="A21" s="56"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="16"/>
@@ -7633,7 +7623,7 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" ht="13.2" spans="1:19">
-      <c r="A22" s="56"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="16"/>
@@ -7654,7 +7644,7 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" ht="13.2" spans="1:19">
-      <c r="A23" s="56"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="16"/>
@@ -7675,7 +7665,7 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" ht="13.2" spans="1:19">
-      <c r="A24" s="56"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="16"/>
@@ -7696,7 +7686,7 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" ht="13.2" spans="1:19">
-      <c r="A25" s="56"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="16"/>
@@ -7717,7 +7707,7 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" ht="13.2" spans="1:19">
-      <c r="A26" s="56"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="16"/>
@@ -7738,7 +7728,7 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" ht="13.2" spans="1:19">
-      <c r="A27" s="56"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="16"/>
@@ -7759,7 +7749,7 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" ht="13.2" spans="1:19">
-      <c r="A28" s="56"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="16"/>
@@ -7780,7 +7770,7 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" ht="13.2" spans="1:19">
-      <c r="A29" s="56"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="16"/>
@@ -7801,7 +7791,7 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" ht="13.2" spans="1:19">
-      <c r="A30" s="56"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="16"/>
@@ -7822,7 +7812,7 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" ht="13.2" spans="1:19">
-      <c r="A31" s="56"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="16"/>
@@ -7843,7 +7833,7 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" ht="13.2" spans="1:19">
-      <c r="A32" s="56"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="16"/>
@@ -7864,7 +7854,7 @@
       <c r="S32" s="1"/>
     </row>
     <row r="33" ht="13.2" spans="1:19">
-      <c r="A33" s="56"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="16"/>
@@ -9936,12 +9926,16 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="18" width="18.8839285714286" customWidth="1"/>
+    <col min="1" max="6" width="18.8839285714286" customWidth="1"/>
+    <col min="7" max="7" width="28.1160714285714" customWidth="1"/>
+    <col min="8" max="11" width="18.8839285714286" customWidth="1"/>
+    <col min="12" max="12" width="30.9464285714286" customWidth="1"/>
+    <col min="13" max="18" width="18.8839285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="184" customHeight="1" spans="1:15">
@@ -9952,42 +9946,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="E1" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="F1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="G1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="H1" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="I1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="J1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="K1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="L1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="N1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="53" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9996,44 +9990,42 @@
         <v>45141.9852510648</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1">
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1">
         <v>4</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
       </c>
-      <c r="N2" s="55">
+      <c r="N2" s="54">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="13.2" spans="1:15">
@@ -10041,7 +10033,7 @@
         <v>45142.7553956019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -10050,43 +10042,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="1">
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1">
         <v>5</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="55">
+      <c r="N3" s="54">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="14" spans="1:15">
       <c r="A4" s="51">
         <v>45142.7553956019</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>56</v>
+      <c r="B4" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -10095,35 +10087,35 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1">
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1">
         <v>5</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
-      <c r="N4" s="55">
+      <c r="N4" s="54">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:13">
@@ -13165,7 +13157,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12"/>
@@ -13179,79 +13171,79 @@
         <v>1</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="H1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="M1" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="N1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="Q1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="25" t="s">
+      <c r="R1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="S1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="25" t="s">
+      <c r="T1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="U1" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="V1" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="W1" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="X1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="Y1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="Z1" s="47" t="s">
         <v>72</v>
-      </c>
-      <c r="Y1" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z1" s="47" t="s">
-        <v>74</v>
       </c>
       <c r="AA1" s="48"/>
       <c r="AB1" s="48"/>
@@ -13263,7 +13255,7 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="22" t="e">
         <f>VLOOKUP(A2,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -13357,7 +13349,7 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="22" t="e">
         <f>VLOOKUP(A3,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -13434,7 +13426,7 @@
       </c>
       <c r="U3" s="40"/>
       <c r="V3" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W3" s="44" t="e">
         <f>VLOOKUP(L3,Legend!$A$1:$B$8,2,0)</f>
@@ -13456,7 +13448,7 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="22" t="e">
         <f>VLOOKUP(A4,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -13527,7 +13519,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S4" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T4" s="41" t="e">
         <f t="shared" si="3"/>
@@ -13555,7 +13547,7 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="22" t="e">
         <f>VLOOKUP(A5,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -13633,7 +13625,7 @@
       <c r="U5" s="40"/>
       <c r="V5" s="40"/>
       <c r="W5" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X5" s="40"/>
       <c r="Y5" s="44" t="e">
@@ -13651,7 +13643,7 @@
     </row>
     <row r="6" ht="14" spans="1:33">
       <c r="A6" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="22" t="e">
         <f>VLOOKUP(A6,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -13722,7 +13714,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S6" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T6" s="41" t="e">
         <f t="shared" si="3"/>
@@ -13730,7 +13722,7 @@
       </c>
       <c r="U6" s="40"/>
       <c r="V6" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W6" s="44" t="e">
         <f>VLOOKUP(L6,Legend!$A$1:$B$8,2,0)</f>
@@ -13752,7 +13744,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="22" t="e">
         <f>VLOOKUP(A7,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -13823,7 +13815,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S7" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T7" s="41" t="e">
         <f t="shared" si="3"/>
@@ -13831,7 +13823,7 @@
       </c>
       <c r="U7" s="40"/>
       <c r="V7" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W7" s="44" t="e">
         <f>VLOOKUP(L7,Legend!$A$1:$B$8,2,0)</f>
@@ -13853,7 +13845,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8" s="22" t="e">
         <f>VLOOKUP(A8,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -13924,7 +13916,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S8" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T8" s="41" t="e">
         <f t="shared" si="3"/>
@@ -13932,7 +13924,7 @@
       </c>
       <c r="U8" s="40"/>
       <c r="V8" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W8" s="44" t="e">
         <f>VLOOKUP(L8,Legend!$A$1:$B$8,2,0)</f>
@@ -13954,7 +13946,7 @@
     </row>
     <row r="9" hidden="1" spans="1:33">
       <c r="A9" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" s="22" t="e">
         <f>VLOOKUP(A9,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -14025,7 +14017,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S9" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T9" s="40"/>
       <c r="U9" s="40"/>
@@ -14050,7 +14042,7 @@
     </row>
     <row r="10" hidden="1" spans="1:33">
       <c r="A10" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" s="22" t="e">
         <f>VLOOKUP(A10,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -14144,7 +14136,7 @@
     </row>
     <row r="11" hidden="1" spans="1:33">
       <c r="A11" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="22" t="e">
         <f>VLOOKUP(A11,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -14238,7 +14230,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="22" t="e">
         <f>VLOOKUP(A12,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -14309,7 +14301,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S12" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T12" s="41" t="e">
         <f>L12-R12</f>
@@ -14317,7 +14309,7 @@
       </c>
       <c r="U12" s="40"/>
       <c r="V12" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W12" s="44" t="e">
         <f>VLOOKUP(L12,Legend!$A$1:$B$8,2,0)</f>
@@ -14339,7 +14331,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B13" s="22" t="e">
         <f>VLOOKUP(A13,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -14410,17 +14402,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S13" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T13" s="41" t="e">
         <f>L13-R13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U13" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V13" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W13" s="44" t="e">
         <f>VLOOKUP(L13,Legend!$A$1:$B$8,2,0)</f>
@@ -14442,7 +14434,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" s="22" t="e">
         <f>VLOOKUP(A14,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -14513,17 +14505,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S14" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T14" s="41" t="e">
         <f>L14-R14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U14" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V14" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W14" s="44" t="e">
         <f>VLOOKUP(L14,Legend!$A$1:$B$8,2,0)</f>
@@ -14545,7 +14537,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B15" s="22" t="e">
         <f>VLOOKUP(A15,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -14622,7 +14614,7 @@
       </c>
       <c r="U15" s="40"/>
       <c r="V15" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W15" s="44" t="e">
         <f>VLOOKUP(L15,Legend!$A$1:$B$8,2,0)</f>
@@ -14644,7 +14636,7 @@
     </row>
     <row r="16" hidden="1" spans="1:33">
       <c r="A16" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="22" t="e">
         <f>VLOOKUP(A16,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -14715,7 +14707,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S16" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T16" s="40"/>
       <c r="U16" s="40"/>
@@ -14740,7 +14732,7 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B17" s="22" t="e">
         <f>VLOOKUP(A17,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -14811,17 +14803,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S17" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T17" s="41" t="e">
         <f>L17-R17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U17" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V17" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W17" s="44" t="e">
         <f>VLOOKUP(L17,Legend!$A$1:$B$8,2,0)</f>
@@ -14843,7 +14835,7 @@
     </row>
     <row r="18" hidden="1" spans="1:33">
       <c r="A18" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B18" s="22" t="e">
         <f>VLOOKUP(A18,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -14914,7 +14906,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S18" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T18" s="40"/>
       <c r="U18" s="40"/>
@@ -14939,7 +14931,7 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="22" t="e">
         <f>VLOOKUP(A19,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -15016,7 +15008,7 @@
       </c>
       <c r="U19" s="40"/>
       <c r="V19" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W19" s="44" t="e">
         <f>VLOOKUP(L19,Legend!$A$1:$B$8,2,0)</f>
@@ -15038,7 +15030,7 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" s="22" t="e">
         <f>VLOOKUP(A20,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -15114,10 +15106,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U20" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V20" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W20" s="44" t="e">
         <f>VLOOKUP(L20,Legend!$A$1:$B$8,2,0)</f>
@@ -15139,7 +15131,7 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B21" s="22" t="e">
         <f>VLOOKUP(A21,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -15210,7 +15202,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S21" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T21" s="41" t="e">
         <f t="shared" si="4"/>
@@ -15238,7 +15230,7 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" s="22" t="e">
         <f>VLOOKUP(A22,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -15309,14 +15301,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S22" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T22" s="41" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U22" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V22" s="40"/>
       <c r="W22" s="44" t="e">
@@ -15339,7 +15331,7 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B23" s="22" t="e">
         <f>VLOOKUP(A23,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -15410,17 +15402,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S23" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T23" s="41" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U23" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V23" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W23" s="44" t="e">
         <f>VLOOKUP(L23,Legend!$A$1:$B$8,2,0)</f>
@@ -15442,7 +15434,7 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B24" s="22" t="e">
         <f>VLOOKUP(A24,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -15513,17 +15505,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T24" s="41" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U24" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V24" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W24" s="44" t="e">
         <f>VLOOKUP(L24,Legend!$A$1:$B$8,2,0)</f>
@@ -15545,7 +15537,7 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B25" s="22" t="e">
         <f>VLOOKUP(A25,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -15616,7 +15608,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T25" s="41" t="e">
         <f t="shared" si="4"/>
@@ -15624,7 +15616,7 @@
       </c>
       <c r="U25" s="40"/>
       <c r="V25" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W25" s="44" t="e">
         <f>VLOOKUP(L25,Legend!$A$1:$B$8,2,0)</f>
@@ -15646,7 +15638,7 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B26" s="22" t="e">
         <f>VLOOKUP(A26,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -15717,7 +15709,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S26" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T26" s="41" t="e">
         <f t="shared" si="4"/>
@@ -15728,7 +15720,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V26" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W26" s="44" t="e">
         <f>VLOOKUP(L26,Legend!$A$1:$B$8,2,0)</f>
@@ -15750,7 +15742,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" s="22" t="e">
         <f>VLOOKUP(A27,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -15826,10 +15818,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V27" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W27" s="44" t="e">
         <f>VLOOKUP(L27,Legend!$A$1:$B$8,2,0)</f>
@@ -15851,7 +15843,7 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="22" t="e">
         <f>VLOOKUP(A28,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -15922,7 +15914,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T28" s="41" t="e">
         <f t="shared" si="4"/>
@@ -15930,7 +15922,7 @@
       </c>
       <c r="U28" s="40"/>
       <c r="V28" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W28" s="44" t="e">
         <f>VLOOKUP(L28,Legend!$A$1:$B$8,2,0)</f>
@@ -15952,7 +15944,7 @@
     </row>
     <row r="29" hidden="1" spans="1:33">
       <c r="A29" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" s="22" t="e">
         <f>VLOOKUP(A29,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -16023,7 +16015,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T29" s="40"/>
       <c r="U29" s="40"/>
@@ -16048,7 +16040,7 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B30" s="22" t="e">
         <f>VLOOKUP(A30,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -16119,7 +16111,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T30" s="41" t="e">
         <f>L30-R30</f>
@@ -16127,7 +16119,7 @@
       </c>
       <c r="U30" s="40"/>
       <c r="V30" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W30" s="44" t="e">
         <f>VLOOKUP(L30,Legend!$A$1:$B$8,2,0)</f>
@@ -16149,7 +16141,7 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B31" s="22" t="e">
         <f>VLOOKUP(A31,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -16220,7 +16212,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T31" s="41" t="e">
         <f>L31-R31</f>
@@ -16228,7 +16220,7 @@
       </c>
       <c r="U31" s="40"/>
       <c r="V31" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W31" s="44" t="e">
         <f>VLOOKUP(L31,Legend!$A$1:$B$8,2,0)</f>
@@ -16250,7 +16242,7 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B32" s="22" t="e">
         <f>VLOOKUP(A32,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -16347,7 +16339,7 @@
     </row>
     <row r="33" hidden="1" spans="1:33">
       <c r="A33" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33" s="22" t="e">
         <f>VLOOKUP(A33,'Self Responses'!$B$2:$M$33,3,)</f>
@@ -16418,7 +16410,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S33" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T33" s="40"/>
       <c r="U33" s="40"/>
@@ -16443,7 +16435,7 @@
     </row>
     <row r="34" hidden="1" spans="1:33">
       <c r="A34" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B34" s="22" t="e">
         <f>VLOOKUP(A34,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -16514,7 +16506,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T34" s="40"/>
       <c r="U34" s="40"/>
@@ -16539,7 +16531,7 @@
     </row>
     <row r="35" hidden="1" spans="1:33">
       <c r="A35" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B35" s="22" t="e">
         <f>VLOOKUP(A35,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -16610,7 +16602,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T35" s="40"/>
       <c r="U35" s="40"/>
@@ -16635,7 +16627,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B36" s="22" t="e">
         <f>VLOOKUP(A36,'Self Responses'!$B$2:$M$33,3,)</f>
@@ -16706,7 +16698,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S36" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T36" s="41" t="e">
         <f>L36-R36</f>
@@ -16714,7 +16706,7 @@
       </c>
       <c r="U36" s="40"/>
       <c r="V36" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W36" s="44" t="e">
         <f>VLOOKUP(L36,Legend!$A$1:$B$8,2,0)</f>
@@ -16736,7 +16728,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B37" s="22" t="e">
         <f>VLOOKUP(A37,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -16807,7 +16799,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S37" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T37" s="41" t="e">
         <f>L37-R37</f>
@@ -16815,7 +16807,7 @@
       </c>
       <c r="U37" s="40"/>
       <c r="V37" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W37" s="44" t="e">
         <f>VLOOKUP(L37,Legend!$A$1:$B$8,2,0)</f>
@@ -16837,7 +16829,7 @@
     </row>
     <row r="38" hidden="1" spans="1:33">
       <c r="A38" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B38" s="22" t="e">
         <f>VLOOKUP(A38,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -16908,7 +16900,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S38" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T38" s="40"/>
       <c r="U38" s="40"/>
@@ -16933,7 +16925,7 @@
     </row>
     <row r="39" hidden="1" spans="1:33">
       <c r="A39" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B39" s="22" t="e">
         <f>VLOOKUP(A39,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -17004,7 +16996,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S39" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T39" s="40" t="e">
         <f>#DIV/0!</f>
@@ -17012,7 +17004,7 @@
       </c>
       <c r="U39" s="40"/>
       <c r="V39" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W39" s="44" t="e">
         <f>VLOOKUP(L39,Legend!$A$1:$B$8,2,0)</f>
@@ -17037,7 +17029,7 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B40" s="22" t="e">
         <f>VLOOKUP(A40,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -17108,17 +17100,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S40" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="T40" s="41" t="e">
         <f>L40-R40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U40" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V40" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W40" s="44" t="e">
         <f>VLOOKUP(L40,Legend!$A$1:$B$8,2,0)</f>
@@ -17140,7 +17132,7 @@
     </row>
     <row r="41" hidden="1" spans="1:33">
       <c r="A41" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B41" s="22" t="e">
         <f>VLOOKUP(A41,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -17234,7 +17226,7 @@
     </row>
     <row r="42" ht="13.2" spans="1:33">
       <c r="A42" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" s="22" t="e">
         <f>VLOOKUP(A42,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -17331,7 +17323,7 @@
     </row>
     <row r="43" hidden="1" spans="1:33">
       <c r="A43" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43" s="22" t="e">
         <f>VLOOKUP(A43,'Self Responses'!$B$2:$M$31,3,)</f>
@@ -17402,7 +17394,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S43" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T43" s="41" t="e">
         <f>L43-R43</f>
@@ -17410,7 +17402,7 @@
       </c>
       <c r="U43" s="40"/>
       <c r="V43" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W43" s="44" t="e">
         <f>VLOOKUP(L43,Legend!$A$1:$B$8,2,0)</f>
@@ -17435,7 +17427,7 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B44" s="22" t="e">
         <f>VLOOKUP(A44,'Self Responses'!$B$2:$M$30,3,)</f>
@@ -51009,25 +51001,25 @@
   <sheetData>
     <row r="1" ht="13.2" spans="1:13">
       <c r="A1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="H1" s="6">
         <v>1</v>
@@ -51042,10 +51034,10 @@
         <v>4</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:13">
@@ -51053,7 +51045,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="9">
         <v>0</v>
@@ -51103,7 +51095,7 @@
         <v>2.5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
@@ -51153,7 +51145,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" s="9">
         <v>0.1</v>
@@ -51203,7 +51195,7 @@
         <v>3.5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="9">
         <v>0.125</v>
@@ -51253,7 +51245,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" s="9">
         <v>0.15</v>
@@ -51303,7 +51295,7 @@
         <v>4.5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C7" s="9">
         <v>0.175</v>
@@ -51353,7 +51345,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="9">
         <v>0.2</v>
@@ -51438,32 +51430,32 @@
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="14" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/peer_review_2024.xlsx
+++ b/peer_review_2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11520" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Self Responses" sheetId="1" r:id="rId1"/>
@@ -534,12 +534,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -598,6 +598,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -605,13 +610,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,10 +633,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -649,22 +673,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,7 +701,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,7 +724,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,32 +732,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -759,37 +759,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,19 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,13 +849,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,13 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,19 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,13 +915,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,6 +950,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1017,173 +1050,140 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,7 +1193,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1202,7 +1202,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1302,13 +1302,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -9923,10 +9923,10 @@
   <sheetPr/>
   <dimension ref="A1:O326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12"/>
@@ -13152,17 +13152,20 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="26.1160714285714" customWidth="1"/>
+    <col min="3" max="3" width="22.6071428571429" customWidth="1"/>
+    <col min="4" max="4" width="24.5535714285714" customWidth="1"/>
+    <col min="16" max="16" width="35.1160714285714" customWidth="1"/>
     <col min="19" max="21" width="12.3839285714286" customWidth="1"/>
   </cols>
   <sheetData>
